--- a/inst/planilha_gal.xlsx
+++ b/inst/planilha_gal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4290"/>
+  <dimension ref="A1:D4291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -67774,16 +67774,16 @@
     <row r="3746">
       <c r="A3746" t="inlineStr">
         <is>
-          <t>SAO PAULO</t>
+          <t>SAO JOAO DE MERITI</t>
         </is>
       </c>
       <c r="B3746" t="inlineStr">
         <is>
-          <t>2022-09-06</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="C3746">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3746">
         <v>0</v>
@@ -67797,14 +67797,14 @@
       </c>
       <c r="B3747" t="inlineStr">
         <is>
-          <t>2022-09-16</t>
+          <t>2022-09-06</t>
         </is>
       </c>
       <c r="C3747">
         <v>2</v>
       </c>
       <c r="D3747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3748">
@@ -67815,11 +67815,11 @@
       </c>
       <c r="B3748" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2022-09-16</t>
         </is>
       </c>
       <c r="C3748">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3748">
         <v>1</v>
@@ -67833,14 +67833,14 @@
       </c>
       <c r="B3749" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="C3749">
         <v>1</v>
       </c>
       <c r="D3749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3750">
@@ -67851,11 +67851,11 @@
       </c>
       <c r="B3750" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="C3750">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3750">
         <v>0</v>
@@ -67869,11 +67869,11 @@
       </c>
       <c r="B3751" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-14</t>
         </is>
       </c>
       <c r="C3751">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3751">
         <v>0</v>
@@ -67887,11 +67887,11 @@
       </c>
       <c r="B3752" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2022-12-15</t>
         </is>
       </c>
       <c r="C3752">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3752">
         <v>0</v>
@@ -67905,14 +67905,14 @@
       </c>
       <c r="B3753" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2022-12-21</t>
         </is>
       </c>
       <c r="C3753">
         <v>3</v>
       </c>
       <c r="D3753">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3754">
@@ -67923,14 +67923,14 @@
       </c>
       <c r="B3754" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="C3754">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3754">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3755">
@@ -67941,14 +67941,14 @@
       </c>
       <c r="B3755" t="inlineStr">
         <is>
-          <t>2023-02-27</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="C3755">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3755">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3756">
@@ -67959,14 +67959,14 @@
       </c>
       <c r="B3756" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2023-02-27</t>
         </is>
       </c>
       <c r="C3756">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3756">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3757">
@@ -67977,7 +67977,7 @@
       </c>
       <c r="B3757" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="C3757">
@@ -67995,14 +67995,14 @@
       </c>
       <c r="B3758" t="inlineStr">
         <is>
-          <t>2023-03-03</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="C3758">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3758">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3759">
@@ -68013,14 +68013,14 @@
       </c>
       <c r="B3759" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
+          <t>2023-03-03</t>
         </is>
       </c>
       <c r="C3759">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3759">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3760">
@@ -68031,14 +68031,14 @@
       </c>
       <c r="B3760" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-03-06</t>
         </is>
       </c>
       <c r="C3760">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3761">
@@ -68049,14 +68049,14 @@
       </c>
       <c r="B3761" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="C3761">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3762">
@@ -68067,14 +68067,14 @@
       </c>
       <c r="B3762" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="C3762">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3762">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3763">
@@ -68085,14 +68085,14 @@
       </c>
       <c r="B3763" t="inlineStr">
         <is>
-          <t>2023-03-15</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="C3763">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3763">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3764">
@@ -68103,14 +68103,14 @@
       </c>
       <c r="B3764" t="inlineStr">
         <is>
-          <t>2023-03-16</t>
+          <t>2023-03-15</t>
         </is>
       </c>
       <c r="C3764">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3765">
@@ -68121,14 +68121,14 @@
       </c>
       <c r="B3765" t="inlineStr">
         <is>
-          <t>2023-03-17</t>
+          <t>2023-03-16</t>
         </is>
       </c>
       <c r="C3765">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3766">
@@ -68139,14 +68139,14 @@
       </c>
       <c r="B3766" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-03-17</t>
         </is>
       </c>
       <c r="C3766">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3766">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3767">
@@ -68157,14 +68157,14 @@
       </c>
       <c r="B3767" t="inlineStr">
         <is>
-          <t>2023-03-21</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="C3767">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3768">
@@ -68175,7 +68175,7 @@
       </c>
       <c r="B3768" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-03-21</t>
         </is>
       </c>
       <c r="C3768">
@@ -68193,14 +68193,14 @@
       </c>
       <c r="B3769" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="C3769">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3770">
@@ -68211,14 +68211,14 @@
       </c>
       <c r="B3770" t="inlineStr">
         <is>
-          <t>2023-03-24</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="C3770">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3771">
@@ -68229,11 +68229,11 @@
       </c>
       <c r="B3771" t="inlineStr">
         <is>
-          <t>2023-03-27</t>
+          <t>2023-03-24</t>
         </is>
       </c>
       <c r="C3771">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3771">
         <v>0</v>
@@ -68247,11 +68247,11 @@
       </c>
       <c r="B3772" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-03-27</t>
         </is>
       </c>
       <c r="C3772">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3772">
         <v>0</v>
@@ -68265,11 +68265,11 @@
       </c>
       <c r="B3773" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="C3773">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3773">
         <v>0</v>
@@ -68283,11 +68283,11 @@
       </c>
       <c r="B3774" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="C3774">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3774">
         <v>0</v>
@@ -68301,11 +68301,11 @@
       </c>
       <c r="B3775" t="inlineStr">
         <is>
-          <t>2023-04-07</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="C3775">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3775">
         <v>0</v>
@@ -68319,11 +68319,11 @@
       </c>
       <c r="B3776" t="inlineStr">
         <is>
-          <t>2023-04-10</t>
+          <t>2023-04-07</t>
         </is>
       </c>
       <c r="C3776">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3776">
         <v>0</v>
@@ -68337,11 +68337,11 @@
       </c>
       <c r="B3777" t="inlineStr">
         <is>
-          <t>2023-04-12</t>
+          <t>2023-04-10</t>
         </is>
       </c>
       <c r="C3777">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3777">
         <v>0</v>
@@ -68355,7 +68355,7 @@
       </c>
       <c r="B3778" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2023-04-12</t>
         </is>
       </c>
       <c r="C3778">
@@ -68373,7 +68373,7 @@
       </c>
       <c r="B3779" t="inlineStr">
         <is>
-          <t>2023-05-17</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="C3779">
@@ -68391,7 +68391,7 @@
       </c>
       <c r="B3780" t="inlineStr">
         <is>
-          <t>2023-05-22</t>
+          <t>2023-05-17</t>
         </is>
       </c>
       <c r="C3780">
@@ -68409,14 +68409,14 @@
       </c>
       <c r="B3781" t="inlineStr">
         <is>
-          <t>2023-05-25</t>
+          <t>2023-05-22</t>
         </is>
       </c>
       <c r="C3781">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3782">
@@ -68427,14 +68427,14 @@
       </c>
       <c r="B3782" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="C3782">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3783">
@@ -68445,14 +68445,14 @@
       </c>
       <c r="B3783" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="C3783">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3784">
@@ -68463,14 +68463,14 @@
       </c>
       <c r="B3784" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="C3784">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3785">
@@ -68481,11 +68481,11 @@
       </c>
       <c r="B3785" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="C3785">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3785">
         <v>0</v>
@@ -68499,11 +68499,11 @@
       </c>
       <c r="B3786" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="C3786">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3786">
         <v>0</v>
@@ -68517,11 +68517,11 @@
       </c>
       <c r="B3787" t="inlineStr">
         <is>
-          <t>2023-06-07</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="C3787">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3787">
         <v>0</v>
@@ -68535,7 +68535,7 @@
       </c>
       <c r="B3788" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-07</t>
         </is>
       </c>
       <c r="C3788">
@@ -68553,11 +68553,11 @@
       </c>
       <c r="B3789" t="inlineStr">
         <is>
-          <t>2023-06-16</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="C3789">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3789">
         <v>0</v>
@@ -68571,11 +68571,11 @@
       </c>
       <c r="B3790" t="inlineStr">
         <is>
-          <t>2023-06-23</t>
+          <t>2023-06-16</t>
         </is>
       </c>
       <c r="C3790">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3790">
         <v>0</v>
@@ -68584,16 +68584,16 @@
     <row r="3791">
       <c r="A3791" t="inlineStr">
         <is>
-          <t>SAO PEDRO DA ALDEIA</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="B3791" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-06-23</t>
         </is>
       </c>
       <c r="C3791">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3791">
         <v>0</v>
@@ -68607,14 +68607,14 @@
       </c>
       <c r="B3792" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="C3792">
         <v>1</v>
       </c>
       <c r="D3792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3793">
@@ -68625,7 +68625,7 @@
       </c>
       <c r="B3793" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-01-04</t>
         </is>
       </c>
       <c r="C3793">
@@ -68643,14 +68643,14 @@
       </c>
       <c r="B3794" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="C3794">
         <v>1</v>
       </c>
       <c r="D3794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3795">
@@ -68661,7 +68661,7 @@
       </c>
       <c r="B3795" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="C3795">
@@ -68679,7 +68679,7 @@
       </c>
       <c r="B3796" t="inlineStr">
         <is>
-          <t>2023-07-11</t>
+          <t>2023-07-08</t>
         </is>
       </c>
       <c r="C3796">
@@ -68697,7 +68697,7 @@
       </c>
       <c r="B3797" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-07-11</t>
         </is>
       </c>
       <c r="C3797">
@@ -68715,14 +68715,14 @@
       </c>
       <c r="B3798" t="inlineStr">
         <is>
-          <t>2023-09-19</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="C3798">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3799">
@@ -68733,14 +68733,14 @@
       </c>
       <c r="B3799" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-19</t>
         </is>
       </c>
       <c r="C3799">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3799">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3800">
@@ -68751,7 +68751,7 @@
       </c>
       <c r="B3800" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="C3800">
@@ -68769,7 +68769,7 @@
       </c>
       <c r="B3801" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="C3801">
@@ -68787,7 +68787,7 @@
       </c>
       <c r="B3802" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="C3802">
@@ -68800,19 +68800,19 @@
     <row r="3803">
       <c r="A3803" t="inlineStr">
         <is>
-          <t>SAPUCAIA</t>
+          <t>SAO PEDRO DA ALDEIA</t>
         </is>
       </c>
       <c r="B3803" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="C3803">
         <v>1</v>
       </c>
       <c r="D3803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3804">
@@ -68823,7 +68823,7 @@
       </c>
       <c r="B3804" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="C3804">
@@ -68836,16 +68836,16 @@
     <row r="3805">
       <c r="A3805" t="inlineStr">
         <is>
-          <t>SAQUAREMA</t>
+          <t>SAPUCAIA</t>
         </is>
       </c>
       <c r="B3805" t="inlineStr">
         <is>
-          <t>2022-12-28</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="C3805">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3805">
         <v>0</v>
@@ -68859,14 +68859,14 @@
       </c>
       <c r="B3806" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-12-28</t>
         </is>
       </c>
       <c r="C3806">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3807">
@@ -68877,14 +68877,14 @@
       </c>
       <c r="B3807" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="C3807">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3808">
@@ -68895,11 +68895,11 @@
       </c>
       <c r="B3808" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="C3808">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3808">
         <v>0</v>
@@ -68913,11 +68913,11 @@
       </c>
       <c r="B3809" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="C3809">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3809">
         <v>0</v>
@@ -68931,11 +68931,11 @@
       </c>
       <c r="B3810" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2023-01-03</t>
         </is>
       </c>
       <c r="C3810">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3810">
         <v>0</v>
@@ -68949,11 +68949,11 @@
       </c>
       <c r="B3811" t="inlineStr">
         <is>
-          <t>2023-01-06</t>
+          <t>2023-01-04</t>
         </is>
       </c>
       <c r="C3811">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3811">
         <v>0</v>
@@ -68967,7 +68967,7 @@
       </c>
       <c r="B3812" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2023-01-06</t>
         </is>
       </c>
       <c r="C3812">
@@ -68985,11 +68985,11 @@
       </c>
       <c r="B3813" t="inlineStr">
         <is>
-          <t>2023-01-08</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="C3813">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3813">
         <v>0</v>
@@ -69003,11 +69003,11 @@
       </c>
       <c r="B3814" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-08</t>
         </is>
       </c>
       <c r="C3814">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3814">
         <v>0</v>
@@ -69021,7 +69021,7 @@
       </c>
       <c r="B3815" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-01-09</t>
         </is>
       </c>
       <c r="C3815">
@@ -69039,11 +69039,11 @@
       </c>
       <c r="B3816" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="C3816">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3816">
         <v>0</v>
@@ -69057,11 +69057,11 @@
       </c>
       <c r="B3817" t="inlineStr">
         <is>
-          <t>2023-01-18</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="C3817">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3817">
         <v>0</v>
@@ -69075,11 +69075,11 @@
       </c>
       <c r="B3818" t="inlineStr">
         <is>
-          <t>2023-01-19</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="C3818">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3818">
         <v>0</v>
@@ -69093,11 +69093,11 @@
       </c>
       <c r="B3819" t="inlineStr">
         <is>
-          <t>2023-01-21</t>
+          <t>2023-01-19</t>
         </is>
       </c>
       <c r="C3819">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3819">
         <v>0</v>
@@ -69111,7 +69111,7 @@
       </c>
       <c r="B3820" t="inlineStr">
         <is>
-          <t>2023-01-23</t>
+          <t>2023-01-21</t>
         </is>
       </c>
       <c r="C3820">
@@ -69129,11 +69129,11 @@
       </c>
       <c r="B3821" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="C3821">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3821">
         <v>0</v>
@@ -69147,11 +69147,11 @@
       </c>
       <c r="B3822" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="C3822">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3822">
         <v>0</v>
@@ -69165,11 +69165,11 @@
       </c>
       <c r="B3823" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-01-27</t>
         </is>
       </c>
       <c r="C3823">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3823">
         <v>0</v>
@@ -69183,11 +69183,11 @@
       </c>
       <c r="B3824" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="C3824">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3824">
         <v>0</v>
@@ -69201,11 +69201,11 @@
       </c>
       <c r="B3825" t="inlineStr">
         <is>
-          <t>2023-01-30</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="C3825">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3825">
         <v>0</v>
@@ -69219,7 +69219,7 @@
       </c>
       <c r="B3826" t="inlineStr">
         <is>
-          <t>2023-01-31</t>
+          <t>2023-01-30</t>
         </is>
       </c>
       <c r="C3826">
@@ -69237,7 +69237,7 @@
       </c>
       <c r="B3827" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="C3827">
@@ -69255,7 +69255,7 @@
       </c>
       <c r="B3828" t="inlineStr">
         <is>
-          <t>2023-02-03</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="C3828">
@@ -69273,7 +69273,7 @@
       </c>
       <c r="B3829" t="inlineStr">
         <is>
-          <t>2023-02-04</t>
+          <t>2023-02-03</t>
         </is>
       </c>
       <c r="C3829">
@@ -69291,11 +69291,11 @@
       </c>
       <c r="B3830" t="inlineStr">
         <is>
-          <t>2023-02-05</t>
+          <t>2023-02-04</t>
         </is>
       </c>
       <c r="C3830">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3830">
         <v>0</v>
@@ -69309,14 +69309,14 @@
       </c>
       <c r="B3831" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-05</t>
         </is>
       </c>
       <c r="C3831">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3832">
@@ -69327,14 +69327,14 @@
       </c>
       <c r="B3832" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-06</t>
         </is>
       </c>
       <c r="C3832">
         <v>1</v>
       </c>
       <c r="D3832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3833">
@@ -69345,11 +69345,11 @@
       </c>
       <c r="B3833" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2023-02-07</t>
         </is>
       </c>
       <c r="C3833">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3833">
         <v>0</v>
@@ -69363,11 +69363,11 @@
       </c>
       <c r="B3834" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="C3834">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3834">
         <v>0</v>
@@ -69381,11 +69381,11 @@
       </c>
       <c r="B3835" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="C3835">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3835">
         <v>0</v>
@@ -69399,7 +69399,7 @@
       </c>
       <c r="B3836" t="inlineStr">
         <is>
-          <t>2023-02-11</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="C3836">
@@ -69417,11 +69417,11 @@
       </c>
       <c r="B3837" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-02-11</t>
         </is>
       </c>
       <c r="C3837">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3837">
         <v>0</v>
@@ -69435,7 +69435,7 @@
       </c>
       <c r="B3838" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="C3838">
@@ -69453,7 +69453,7 @@
       </c>
       <c r="B3839" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="C3839">
@@ -69471,7 +69471,7 @@
       </c>
       <c r="B3840" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="C3840">
@@ -69489,7 +69489,7 @@
       </c>
       <c r="B3841" t="inlineStr">
         <is>
-          <t>2023-02-18</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="C3841">
@@ -69507,11 +69507,11 @@
       </c>
       <c r="B3842" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="C3842">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3842">
         <v>0</v>
@@ -69525,11 +69525,11 @@
       </c>
       <c r="B3843" t="inlineStr">
         <is>
-          <t>2023-02-20</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="C3843">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3843">
         <v>0</v>
@@ -69543,7 +69543,7 @@
       </c>
       <c r="B3844" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="C3844">
@@ -69561,11 +69561,11 @@
       </c>
       <c r="B3845" t="inlineStr">
         <is>
-          <t>2023-02-22</t>
+          <t>2023-02-21</t>
         </is>
       </c>
       <c r="C3845">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3845">
         <v>0</v>
@@ -69579,11 +69579,11 @@
       </c>
       <c r="B3846" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-02-22</t>
         </is>
       </c>
       <c r="C3846">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3846">
         <v>0</v>
@@ -69597,11 +69597,11 @@
       </c>
       <c r="B3847" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="C3847">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3847">
         <v>0</v>
@@ -69615,14 +69615,14 @@
       </c>
       <c r="B3848" t="inlineStr">
         <is>
-          <t>2023-02-25</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="C3848">
         <v>3</v>
       </c>
       <c r="D3848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3849">
@@ -69633,14 +69633,14 @@
       </c>
       <c r="B3849" t="inlineStr">
         <is>
-          <t>2023-02-26</t>
+          <t>2023-02-25</t>
         </is>
       </c>
       <c r="C3849">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3849">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3850">
@@ -69651,14 +69651,14 @@
       </c>
       <c r="B3850" t="inlineStr">
         <is>
-          <t>2023-02-27</t>
+          <t>2023-02-26</t>
         </is>
       </c>
       <c r="C3850">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3851">
@@ -69669,11 +69669,11 @@
       </c>
       <c r="B3851" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-02-27</t>
         </is>
       </c>
       <c r="C3851">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3851">
         <v>0</v>
@@ -69687,11 +69687,11 @@
       </c>
       <c r="B3852" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2023-02-28</t>
         </is>
       </c>
       <c r="C3852">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3852">
         <v>0</v>
@@ -69705,11 +69705,11 @@
       </c>
       <c r="B3853" t="inlineStr">
         <is>
-          <t>2023-03-03</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="C3853">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3853">
         <v>0</v>
@@ -69723,11 +69723,11 @@
       </c>
       <c r="B3854" t="inlineStr">
         <is>
-          <t>2023-03-04</t>
+          <t>2023-03-03</t>
         </is>
       </c>
       <c r="C3854">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3854">
         <v>0</v>
@@ -69741,11 +69741,11 @@
       </c>
       <c r="B3855" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
+          <t>2023-03-04</t>
         </is>
       </c>
       <c r="C3855">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3855">
         <v>0</v>
@@ -69759,7 +69759,7 @@
       </c>
       <c r="B3856" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-06</t>
         </is>
       </c>
       <c r="C3856">
@@ -69777,11 +69777,11 @@
       </c>
       <c r="B3857" t="inlineStr">
         <is>
-          <t>2023-03-09</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="C3857">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3857">
         <v>0</v>
@@ -69795,11 +69795,11 @@
       </c>
       <c r="B3858" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-03-09</t>
         </is>
       </c>
       <c r="C3858">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3858">
         <v>0</v>
@@ -69813,7 +69813,7 @@
       </c>
       <c r="B3859" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="C3859">
@@ -69831,7 +69831,7 @@
       </c>
       <c r="B3860" t="inlineStr">
         <is>
-          <t>2023-03-14</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="C3860">
@@ -69849,7 +69849,7 @@
       </c>
       <c r="B3861" t="inlineStr">
         <is>
-          <t>2023-03-15</t>
+          <t>2023-03-14</t>
         </is>
       </c>
       <c r="C3861">
@@ -69867,14 +69867,14 @@
       </c>
       <c r="B3862" t="inlineStr">
         <is>
-          <t>2023-03-16</t>
+          <t>2023-03-15</t>
         </is>
       </c>
       <c r="C3862">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3863">
@@ -69885,14 +69885,14 @@
       </c>
       <c r="B3863" t="inlineStr">
         <is>
-          <t>2023-03-17</t>
+          <t>2023-03-16</t>
         </is>
       </c>
       <c r="C3863">
         <v>2</v>
       </c>
       <c r="D3863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3864">
@@ -69903,7 +69903,7 @@
       </c>
       <c r="B3864" t="inlineStr">
         <is>
-          <t>2023-03-18</t>
+          <t>2023-03-17</t>
         </is>
       </c>
       <c r="C3864">
@@ -69921,11 +69921,11 @@
       </c>
       <c r="B3865" t="inlineStr">
         <is>
-          <t>2023-03-19</t>
+          <t>2023-03-18</t>
         </is>
       </c>
       <c r="C3865">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3865">
         <v>0</v>
@@ -69939,11 +69939,11 @@
       </c>
       <c r="B3866" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-03-19</t>
         </is>
       </c>
       <c r="C3866">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3866">
         <v>0</v>
@@ -69957,11 +69957,11 @@
       </c>
       <c r="B3867" t="inlineStr">
         <is>
-          <t>2023-03-21</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="C3867">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3867">
         <v>0</v>
@@ -69975,11 +69975,11 @@
       </c>
       <c r="B3868" t="inlineStr">
         <is>
-          <t>2023-03-24</t>
+          <t>2023-03-21</t>
         </is>
       </c>
       <c r="C3868">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3868">
         <v>0</v>
@@ -69993,14 +69993,14 @@
       </c>
       <c r="B3869" t="inlineStr">
         <is>
-          <t>2023-03-25</t>
+          <t>2023-03-24</t>
         </is>
       </c>
       <c r="C3869">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3870">
@@ -70011,11 +70011,11 @@
       </c>
       <c r="B3870" t="inlineStr">
         <is>
-          <t>2023-03-27</t>
+          <t>2023-03-25</t>
         </is>
       </c>
       <c r="C3870">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3870">
         <v>1</v>
@@ -70029,14 +70029,14 @@
       </c>
       <c r="B3871" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-03-27</t>
         </is>
       </c>
       <c r="C3871">
         <v>2</v>
       </c>
       <c r="D3871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3872">
@@ -70047,11 +70047,11 @@
       </c>
       <c r="B3872" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="C3872">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3872">
         <v>0</v>
@@ -70065,7 +70065,7 @@
       </c>
       <c r="B3873" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="C3873">
@@ -70083,11 +70083,11 @@
       </c>
       <c r="B3874" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="C3874">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3874">
         <v>0</v>
@@ -70101,14 +70101,14 @@
       </c>
       <c r="B3875" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-04-02</t>
         </is>
       </c>
       <c r="C3875">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3876">
@@ -70119,7 +70119,7 @@
       </c>
       <c r="B3876" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="C3876">
@@ -70137,14 +70137,14 @@
       </c>
       <c r="B3877" t="inlineStr">
         <is>
-          <t>2023-04-05</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="C3877">
         <v>1</v>
       </c>
       <c r="D3877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3878">
@@ -70155,11 +70155,11 @@
       </c>
       <c r="B3878" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="C3878">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3878">
         <v>0</v>
@@ -70173,11 +70173,11 @@
       </c>
       <c r="B3879" t="inlineStr">
         <is>
-          <t>2023-04-07</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="C3879">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3879">
         <v>0</v>
@@ -70191,7 +70191,7 @@
       </c>
       <c r="B3880" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2023-04-07</t>
         </is>
       </c>
       <c r="C3880">
@@ -70209,14 +70209,14 @@
       </c>
       <c r="B3881" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="C3881">
         <v>1</v>
       </c>
       <c r="D3881">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3882">
@@ -70227,14 +70227,14 @@
       </c>
       <c r="B3882" t="inlineStr">
         <is>
-          <t>2023-04-10</t>
+          <t>2023-04-09</t>
         </is>
       </c>
       <c r="C3882">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3883">
@@ -70245,14 +70245,14 @@
       </c>
       <c r="B3883" t="inlineStr">
         <is>
-          <t>2023-04-11</t>
+          <t>2023-04-10</t>
         </is>
       </c>
       <c r="C3883">
         <v>4</v>
       </c>
       <c r="D3883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3884">
@@ -70263,14 +70263,14 @@
       </c>
       <c r="B3884" t="inlineStr">
         <is>
-          <t>2023-04-12</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="C3884">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3885">
@@ -70281,7 +70281,7 @@
       </c>
       <c r="B3885" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2023-04-12</t>
         </is>
       </c>
       <c r="C3885">
@@ -70299,14 +70299,14 @@
       </c>
       <c r="B3886" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="C3886">
         <v>2</v>
       </c>
       <c r="D3886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3887">
@@ -70317,14 +70317,14 @@
       </c>
       <c r="B3887" t="inlineStr">
         <is>
-          <t>2023-04-15</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="C3887">
         <v>2</v>
       </c>
       <c r="D3887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3888">
@@ -70335,11 +70335,11 @@
       </c>
       <c r="B3888" t="inlineStr">
         <is>
-          <t>2023-04-17</t>
+          <t>2023-04-15</t>
         </is>
       </c>
       <c r="C3888">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3888">
         <v>0</v>
@@ -70353,11 +70353,11 @@
       </c>
       <c r="B3889" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-04-17</t>
         </is>
       </c>
       <c r="C3889">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3889">
         <v>0</v>
@@ -70371,11 +70371,11 @@
       </c>
       <c r="B3890" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="C3890">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3890">
         <v>0</v>
@@ -70389,7 +70389,7 @@
       </c>
       <c r="B3891" t="inlineStr">
         <is>
-          <t>2023-04-20</t>
+          <t>2023-04-19</t>
         </is>
       </c>
       <c r="C3891">
@@ -70407,11 +70407,11 @@
       </c>
       <c r="B3892" t="inlineStr">
         <is>
-          <t>2023-04-21</t>
+          <t>2023-04-20</t>
         </is>
       </c>
       <c r="C3892">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3892">
         <v>0</v>
@@ -70425,11 +70425,11 @@
       </c>
       <c r="B3893" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="C3893">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3893">
         <v>0</v>
@@ -70443,11 +70443,11 @@
       </c>
       <c r="B3894" t="inlineStr">
         <is>
-          <t>2023-04-24</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="C3894">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3894">
         <v>0</v>
@@ -70461,11 +70461,11 @@
       </c>
       <c r="B3895" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-04-24</t>
         </is>
       </c>
       <c r="C3895">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3895">
         <v>0</v>
@@ -70479,11 +70479,11 @@
       </c>
       <c r="B3896" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="C3896">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3896">
         <v>0</v>
@@ -70497,7 +70497,7 @@
       </c>
       <c r="B3897" t="inlineStr">
         <is>
-          <t>2023-04-27</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="C3897">
@@ -70515,11 +70515,11 @@
       </c>
       <c r="B3898" t="inlineStr">
         <is>
-          <t>2023-04-28</t>
+          <t>2023-04-27</t>
         </is>
       </c>
       <c r="C3898">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3898">
         <v>0</v>
@@ -70533,7 +70533,7 @@
       </c>
       <c r="B3899" t="inlineStr">
         <is>
-          <t>2023-04-29</t>
+          <t>2023-04-28</t>
         </is>
       </c>
       <c r="C3899">
@@ -70551,11 +70551,11 @@
       </c>
       <c r="B3900" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-04-29</t>
         </is>
       </c>
       <c r="C3900">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3900">
         <v>0</v>
@@ -70569,7 +70569,7 @@
       </c>
       <c r="B3901" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-04-30</t>
         </is>
       </c>
       <c r="C3901">
@@ -70587,7 +70587,7 @@
       </c>
       <c r="B3902" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="C3902">
@@ -70605,7 +70605,7 @@
       </c>
       <c r="B3903" t="inlineStr">
         <is>
-          <t>2023-05-03</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="C3903">
@@ -70623,11 +70623,11 @@
       </c>
       <c r="B3904" t="inlineStr">
         <is>
-          <t>2023-05-04</t>
+          <t>2023-05-03</t>
         </is>
       </c>
       <c r="C3904">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3904">
         <v>0</v>
@@ -70641,11 +70641,11 @@
       </c>
       <c r="B3905" t="inlineStr">
         <is>
-          <t>2023-05-05</t>
+          <t>2023-05-04</t>
         </is>
       </c>
       <c r="C3905">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3905">
         <v>0</v>
@@ -70659,11 +70659,11 @@
       </c>
       <c r="B3906" t="inlineStr">
         <is>
-          <t>2023-05-06</t>
+          <t>2023-05-05</t>
         </is>
       </c>
       <c r="C3906">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3906">
         <v>0</v>
@@ -70677,11 +70677,11 @@
       </c>
       <c r="B3907" t="inlineStr">
         <is>
-          <t>2023-05-07</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="C3907">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3907">
         <v>0</v>
@@ -70695,11 +70695,11 @@
       </c>
       <c r="B3908" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-05-07</t>
         </is>
       </c>
       <c r="C3908">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3908">
         <v>0</v>
@@ -70713,11 +70713,11 @@
       </c>
       <c r="B3909" t="inlineStr">
         <is>
-          <t>2023-05-09</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="C3909">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3909">
         <v>0</v>
@@ -70731,11 +70731,11 @@
       </c>
       <c r="B3910" t="inlineStr">
         <is>
-          <t>2023-05-10</t>
+          <t>2023-05-09</t>
         </is>
       </c>
       <c r="C3910">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3910">
         <v>0</v>
@@ -70749,7 +70749,7 @@
       </c>
       <c r="B3911" t="inlineStr">
         <is>
-          <t>2023-05-11</t>
+          <t>2023-05-10</t>
         </is>
       </c>
       <c r="C3911">
@@ -70767,11 +70767,11 @@
       </c>
       <c r="B3912" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-05-11</t>
         </is>
       </c>
       <c r="C3912">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3912">
         <v>0</v>
@@ -70785,11 +70785,11 @@
       </c>
       <c r="B3913" t="inlineStr">
         <is>
-          <t>2023-05-13</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="C3913">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3913">
         <v>0</v>
@@ -70803,7 +70803,7 @@
       </c>
       <c r="B3914" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-13</t>
         </is>
       </c>
       <c r="C3914">
@@ -70821,7 +70821,7 @@
       </c>
       <c r="B3915" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="C3915">
@@ -70839,14 +70839,14 @@
       </c>
       <c r="B3916" t="inlineStr">
         <is>
-          <t>2023-05-17</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="C3916">
         <v>3</v>
       </c>
       <c r="D3916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3917">
@@ -70857,14 +70857,14 @@
       </c>
       <c r="B3917" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-17</t>
         </is>
       </c>
       <c r="C3917">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3918">
@@ -70875,11 +70875,11 @@
       </c>
       <c r="B3918" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="C3918">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3918">
         <v>0</v>
@@ -70893,11 +70893,11 @@
       </c>
       <c r="B3919" t="inlineStr">
         <is>
-          <t>2023-05-22</t>
+          <t>2023-05-21</t>
         </is>
       </c>
       <c r="C3919">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3919">
         <v>0</v>
@@ -70911,7 +70911,7 @@
       </c>
       <c r="B3920" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2023-05-22</t>
         </is>
       </c>
       <c r="C3920">
@@ -70929,11 +70929,11 @@
       </c>
       <c r="B3921" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="C3921">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3921">
         <v>0</v>
@@ -70947,11 +70947,11 @@
       </c>
       <c r="B3922" t="inlineStr">
         <is>
-          <t>2023-05-25</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="C3922">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3922">
         <v>0</v>
@@ -70965,7 +70965,7 @@
       </c>
       <c r="B3923" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="C3923">
@@ -70983,11 +70983,11 @@
       </c>
       <c r="B3924" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="C3924">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3924">
         <v>0</v>
@@ -71001,11 +71001,11 @@
       </c>
       <c r="B3925" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="C3925">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3925">
         <v>0</v>
@@ -71019,7 +71019,7 @@
       </c>
       <c r="B3926" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="C3926">
@@ -71037,11 +71037,11 @@
       </c>
       <c r="B3927" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="C3927">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3927">
         <v>0</v>
@@ -71055,14 +71055,14 @@
       </c>
       <c r="B3928" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="C3928">
         <v>3</v>
       </c>
       <c r="D3928">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3929">
@@ -71073,14 +71073,14 @@
       </c>
       <c r="B3929" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="C3929">
         <v>3</v>
       </c>
       <c r="D3929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3930">
@@ -71091,11 +71091,11 @@
       </c>
       <c r="B3930" t="inlineStr">
         <is>
-          <t>2023-06-03</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="C3930">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3930">
         <v>0</v>
@@ -71109,11 +71109,11 @@
       </c>
       <c r="B3931" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-03</t>
         </is>
       </c>
       <c r="C3931">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3931">
         <v>0</v>
@@ -71127,11 +71127,11 @@
       </c>
       <c r="B3932" t="inlineStr">
         <is>
-          <t>2023-06-06</t>
+          <t>2023-06-04</t>
         </is>
       </c>
       <c r="C3932">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3932">
         <v>0</v>
@@ -71145,11 +71145,11 @@
       </c>
       <c r="B3933" t="inlineStr">
         <is>
-          <t>2023-06-07</t>
+          <t>2023-06-06</t>
         </is>
       </c>
       <c r="C3933">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3933">
         <v>0</v>
@@ -71163,7 +71163,7 @@
       </c>
       <c r="B3934" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2023-06-07</t>
         </is>
       </c>
       <c r="C3934">
@@ -71181,11 +71181,11 @@
       </c>
       <c r="B3935" t="inlineStr">
         <is>
-          <t>2023-06-09</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="C3935">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3935">
         <v>0</v>
@@ -71199,7 +71199,7 @@
       </c>
       <c r="B3936" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-06-09</t>
         </is>
       </c>
       <c r="C3936">
@@ -71217,11 +71217,11 @@
       </c>
       <c r="B3937" t="inlineStr">
         <is>
-          <t>2023-06-11</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="C3937">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3937">
         <v>0</v>
@@ -71235,11 +71235,11 @@
       </c>
       <c r="B3938" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-11</t>
         </is>
       </c>
       <c r="C3938">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3938">
         <v>0</v>
@@ -71253,11 +71253,11 @@
       </c>
       <c r="B3939" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="C3939">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3939">
         <v>0</v>
@@ -71271,11 +71271,11 @@
       </c>
       <c r="B3940" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="C3940">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3940">
         <v>0</v>
@@ -71289,11 +71289,11 @@
       </c>
       <c r="B3941" t="inlineStr">
         <is>
-          <t>2023-06-16</t>
+          <t>2023-06-15</t>
         </is>
       </c>
       <c r="C3941">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3941">
         <v>0</v>
@@ -71307,11 +71307,11 @@
       </c>
       <c r="B3942" t="inlineStr">
         <is>
-          <t>2023-06-17</t>
+          <t>2023-06-16</t>
         </is>
       </c>
       <c r="C3942">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3942">
         <v>0</v>
@@ -71325,11 +71325,11 @@
       </c>
       <c r="B3943" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-17</t>
         </is>
       </c>
       <c r="C3943">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3943">
         <v>0</v>
@@ -71343,7 +71343,7 @@
       </c>
       <c r="B3944" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
+          <t>2023-06-18</t>
         </is>
       </c>
       <c r="C3944">
@@ -71361,7 +71361,7 @@
       </c>
       <c r="B3945" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="C3945">
@@ -71379,7 +71379,7 @@
       </c>
       <c r="B3946" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="C3946">
@@ -71397,14 +71397,14 @@
       </c>
       <c r="B3947" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="C3947">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3947">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3948">
@@ -71415,14 +71415,14 @@
       </c>
       <c r="B3948" t="inlineStr">
         <is>
-          <t>2023-06-25</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="C3948">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3949">
@@ -71433,11 +71433,11 @@
       </c>
       <c r="B3949" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-25</t>
         </is>
       </c>
       <c r="C3949">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3949">
         <v>0</v>
@@ -71451,11 +71451,11 @@
       </c>
       <c r="B3950" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="C3950">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3950">
         <v>0</v>
@@ -71469,11 +71469,11 @@
       </c>
       <c r="B3951" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="C3951">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3951">
         <v>0</v>
@@ -71487,11 +71487,11 @@
       </c>
       <c r="B3952" t="inlineStr">
         <is>
-          <t>2023-07-02</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="C3952">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3952">
         <v>0</v>
@@ -71505,7 +71505,7 @@
       </c>
       <c r="B3953" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-07-02</t>
         </is>
       </c>
       <c r="C3953">
@@ -71523,7 +71523,7 @@
       </c>
       <c r="B3954" t="inlineStr">
         <is>
-          <t>2023-07-05</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="C3954">
@@ -71541,11 +71541,11 @@
       </c>
       <c r="B3955" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2023-07-05</t>
         </is>
       </c>
       <c r="C3955">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3955">
         <v>0</v>
@@ -71559,7 +71559,7 @@
       </c>
       <c r="B3956" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="C3956">
@@ -71577,11 +71577,11 @@
       </c>
       <c r="B3957" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2023-07-08</t>
         </is>
       </c>
       <c r="C3957">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3957">
         <v>0</v>
@@ -71595,11 +71595,11 @@
       </c>
       <c r="B3958" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="C3958">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3958">
         <v>0</v>
@@ -71613,7 +71613,7 @@
       </c>
       <c r="B3959" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="C3959">
@@ -71631,11 +71631,11 @@
       </c>
       <c r="B3960" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-07-13</t>
         </is>
       </c>
       <c r="C3960">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3960">
         <v>0</v>
@@ -71649,11 +71649,11 @@
       </c>
       <c r="B3961" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="C3961">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3961">
         <v>0</v>
@@ -71667,11 +71667,11 @@
       </c>
       <c r="B3962" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="C3962">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3962">
         <v>0</v>
@@ -71685,11 +71685,11 @@
       </c>
       <c r="B3963" t="inlineStr">
         <is>
-          <t>2023-07-17</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="C3963">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3963">
         <v>0</v>
@@ -71703,11 +71703,11 @@
       </c>
       <c r="B3964" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-07-17</t>
         </is>
       </c>
       <c r="C3964">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3964">
         <v>0</v>
@@ -71721,11 +71721,11 @@
       </c>
       <c r="B3965" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="C3965">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3965">
         <v>0</v>
@@ -71739,7 +71739,7 @@
       </c>
       <c r="B3966" t="inlineStr">
         <is>
-          <t>2023-07-22</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="C3966">
@@ -71757,11 +71757,11 @@
       </c>
       <c r="B3967" t="inlineStr">
         <is>
-          <t>2023-07-23</t>
+          <t>2023-07-22</t>
         </is>
       </c>
       <c r="C3967">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3967">
         <v>0</v>
@@ -71775,11 +71775,11 @@
       </c>
       <c r="B3968" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-07-23</t>
         </is>
       </c>
       <c r="C3968">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3968">
         <v>0</v>
@@ -71793,11 +71793,11 @@
       </c>
       <c r="B3969" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="C3969">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3969">
         <v>0</v>
@@ -71811,7 +71811,7 @@
       </c>
       <c r="B3970" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="C3970">
@@ -71829,11 +71829,11 @@
       </c>
       <c r="B3971" t="inlineStr">
         <is>
-          <t>2023-07-28</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="C3971">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3971">
         <v>0</v>
@@ -71847,11 +71847,11 @@
       </c>
       <c r="B3972" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-07-28</t>
         </is>
       </c>
       <c r="C3972">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3972">
         <v>0</v>
@@ -71865,11 +71865,11 @@
       </c>
       <c r="B3973" t="inlineStr">
         <is>
-          <t>2023-07-30</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="C3973">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3973">
         <v>0</v>
@@ -71883,7 +71883,7 @@
       </c>
       <c r="B3974" t="inlineStr">
         <is>
-          <t>2023-07-31</t>
+          <t>2023-07-30</t>
         </is>
       </c>
       <c r="C3974">
@@ -71901,11 +71901,11 @@
       </c>
       <c r="B3975" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="C3975">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3975">
         <v>0</v>
@@ -71919,11 +71919,11 @@
       </c>
       <c r="B3976" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="C3976">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3976">
         <v>0</v>
@@ -71937,11 +71937,11 @@
       </c>
       <c r="B3977" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="C3977">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3977">
         <v>0</v>
@@ -71955,14 +71955,14 @@
       </c>
       <c r="B3978" t="inlineStr">
         <is>
-          <t>2023-08-05</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="C3978">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3978">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3979">
@@ -71973,14 +71973,14 @@
       </c>
       <c r="B3979" t="inlineStr">
         <is>
-          <t>2023-08-08</t>
+          <t>2023-08-05</t>
         </is>
       </c>
       <c r="C3979">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3980">
@@ -71991,11 +71991,11 @@
       </c>
       <c r="B3980" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-08-08</t>
         </is>
       </c>
       <c r="C3980">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3980">
         <v>0</v>
@@ -72009,11 +72009,11 @@
       </c>
       <c r="B3981" t="inlineStr">
         <is>
-          <t>2023-08-10</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="C3981">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3981">
         <v>0</v>
@@ -72027,7 +72027,7 @@
       </c>
       <c r="B3982" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-10</t>
         </is>
       </c>
       <c r="C3982">
@@ -72045,11 +72045,11 @@
       </c>
       <c r="B3983" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="C3983">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3983">
         <v>0</v>
@@ -72063,11 +72063,11 @@
       </c>
       <c r="B3984" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="C3984">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3984">
         <v>0</v>
@@ -72081,11 +72081,11 @@
       </c>
       <c r="B3985" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="C3985">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3985">
         <v>0</v>
@@ -72099,11 +72099,11 @@
       </c>
       <c r="B3986" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="C3986">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3986">
         <v>0</v>
@@ -72117,7 +72117,7 @@
       </c>
       <c r="B3987" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="C3987">
@@ -72135,11 +72135,11 @@
       </c>
       <c r="B3988" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="C3988">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3988">
         <v>0</v>
@@ -72153,7 +72153,7 @@
       </c>
       <c r="B3989" t="inlineStr">
         <is>
-          <t>2023-08-24</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="C3989">
@@ -72171,7 +72171,7 @@
       </c>
       <c r="B3990" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-24</t>
         </is>
       </c>
       <c r="C3990">
@@ -72189,11 +72189,11 @@
       </c>
       <c r="B3991" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="C3991">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3991">
         <v>0</v>
@@ -72207,11 +72207,11 @@
       </c>
       <c r="B3992" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="C3992">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3992">
         <v>0</v>
@@ -72225,11 +72225,11 @@
       </c>
       <c r="B3993" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="C3993">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3993">
         <v>0</v>
@@ -72243,11 +72243,11 @@
       </c>
       <c r="B3994" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="C3994">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3994">
         <v>0</v>
@@ -72261,11 +72261,11 @@
       </c>
       <c r="B3995" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="C3995">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3995">
         <v>0</v>
@@ -72279,11 +72279,11 @@
       </c>
       <c r="B3996" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="C3996">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3996">
         <v>0</v>
@@ -72297,11 +72297,11 @@
       </c>
       <c r="B3997" t="inlineStr">
         <is>
-          <t>2023-09-02</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="C3997">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3997">
         <v>0</v>
@@ -72315,14 +72315,14 @@
       </c>
       <c r="B3998" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-09-02</t>
         </is>
       </c>
       <c r="C3998">
         <v>1</v>
       </c>
       <c r="D3998">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3999">
@@ -72333,14 +72333,14 @@
       </c>
       <c r="B3999" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="C3999">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3999">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4000">
@@ -72351,7 +72351,7 @@
       </c>
       <c r="B4000" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="C4000">
@@ -72369,7 +72369,7 @@
       </c>
       <c r="B4001" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="C4001">
@@ -72387,11 +72387,11 @@
       </c>
       <c r="B4002" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="C4002">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4002">
         <v>0</v>
@@ -72405,7 +72405,7 @@
       </c>
       <c r="B4003" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="C4003">
@@ -72423,11 +72423,11 @@
       </c>
       <c r="B4004" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="C4004">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4004">
         <v>0</v>
@@ -72441,11 +72441,11 @@
       </c>
       <c r="B4005" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-10</t>
         </is>
       </c>
       <c r="C4005">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4005">
         <v>0</v>
@@ -72459,7 +72459,7 @@
       </c>
       <c r="B4006" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="C4006">
@@ -72477,14 +72477,14 @@
       </c>
       <c r="B4007" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="C4007">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4007">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4008">
@@ -72495,14 +72495,14 @@
       </c>
       <c r="B4008" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="C4008">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4008">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4009">
@@ -72513,11 +72513,11 @@
       </c>
       <c r="B4009" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-16</t>
         </is>
       </c>
       <c r="C4009">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4009">
         <v>0</v>
@@ -72531,7 +72531,7 @@
       </c>
       <c r="B4010" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="C4010">
@@ -72549,7 +72549,7 @@
       </c>
       <c r="B4011" t="inlineStr">
         <is>
-          <t>2023-09-19</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="C4011">
@@ -72567,11 +72567,11 @@
       </c>
       <c r="B4012" t="inlineStr">
         <is>
-          <t>2023-09-20</t>
+          <t>2023-09-19</t>
         </is>
       </c>
       <c r="C4012">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4012">
         <v>0</v>
@@ -72585,11 +72585,11 @@
       </c>
       <c r="B4013" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-20</t>
         </is>
       </c>
       <c r="C4013">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4013">
         <v>0</v>
@@ -72603,11 +72603,11 @@
       </c>
       <c r="B4014" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="C4014">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4014">
         <v>0</v>
@@ -72621,11 +72621,11 @@
       </c>
       <c r="B4015" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="C4015">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4015">
         <v>0</v>
@@ -72639,11 +72639,11 @@
       </c>
       <c r="B4016" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="C4016">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4016">
         <v>0</v>
@@ -72657,11 +72657,11 @@
       </c>
       <c r="B4017" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="C4017">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4017">
         <v>0</v>
@@ -72675,11 +72675,11 @@
       </c>
       <c r="B4018" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="C4018">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4018">
         <v>0</v>
@@ -72693,11 +72693,11 @@
       </c>
       <c r="B4019" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="C4019">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4019">
         <v>0</v>
@@ -72706,12 +72706,12 @@
     <row r="4020">
       <c r="A4020" t="inlineStr">
         <is>
-          <t>SEROPEDICA</t>
+          <t>SAQUAREMA</t>
         </is>
       </c>
       <c r="B4020" t="inlineStr">
         <is>
-          <t>2023-06-29</t>
+          <t>2023-09-29</t>
         </is>
       </c>
       <c r="C4020">
@@ -72724,12 +72724,12 @@
     <row r="4021">
       <c r="A4021" t="inlineStr">
         <is>
-          <t>SILVA JARDIM</t>
+          <t>SEROPEDICA</t>
         </is>
       </c>
       <c r="B4021" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-06-29</t>
         </is>
       </c>
       <c r="C4021">
@@ -72747,11 +72747,11 @@
       </c>
       <c r="B4022" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="C4022">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4022">
         <v>0</v>
@@ -72765,7 +72765,7 @@
       </c>
       <c r="B4023" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="C4023">
@@ -72778,16 +72778,16 @@
     <row r="4024">
       <c r="A4024" t="inlineStr">
         <is>
-          <t>SUMIDOURO</t>
+          <t>SILVA JARDIM</t>
         </is>
       </c>
       <c r="B4024" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="C4024">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4024">
         <v>0</v>
@@ -72796,16 +72796,16 @@
     <row r="4025">
       <c r="A4025" t="inlineStr">
         <is>
-          <t>TERESOPOLIS</t>
+          <t>SUMIDOURO</t>
         </is>
       </c>
       <c r="B4025" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="C4025">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4025">
         <v>0</v>
@@ -72819,11 +72819,11 @@
       </c>
       <c r="B4026" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="C4026">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4026">
         <v>0</v>
@@ -72837,7 +72837,7 @@
       </c>
       <c r="B4027" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-01-04</t>
         </is>
       </c>
       <c r="C4027">
@@ -72855,11 +72855,11 @@
       </c>
       <c r="B4028" t="inlineStr">
         <is>
-          <t>2023-01-14</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="C4028">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4028">
         <v>0</v>
@@ -72873,11 +72873,11 @@
       </c>
       <c r="B4029" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-14</t>
         </is>
       </c>
       <c r="C4029">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4029">
         <v>0</v>
@@ -72891,11 +72891,11 @@
       </c>
       <c r="B4030" t="inlineStr">
         <is>
-          <t>2023-01-25</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="C4030">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4030">
         <v>0</v>
@@ -72909,7 +72909,7 @@
       </c>
       <c r="B4031" t="inlineStr">
         <is>
-          <t>2023-01-26</t>
+          <t>2023-01-25</t>
         </is>
       </c>
       <c r="C4031">
@@ -72927,11 +72927,11 @@
       </c>
       <c r="B4032" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-01-26</t>
         </is>
       </c>
       <c r="C4032">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4032">
         <v>0</v>
@@ -72945,7 +72945,7 @@
       </c>
       <c r="B4033" t="inlineStr">
         <is>
-          <t>2023-01-31</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="C4033">
@@ -72963,11 +72963,11 @@
       </c>
       <c r="B4034" t="inlineStr">
         <is>
-          <t>2023-02-04</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="C4034">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4034">
         <v>0</v>
@@ -72981,11 +72981,11 @@
       </c>
       <c r="B4035" t="inlineStr">
         <is>
-          <t>2023-02-05</t>
+          <t>2023-02-04</t>
         </is>
       </c>
       <c r="C4035">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4035">
         <v>0</v>
@@ -72999,14 +72999,14 @@
       </c>
       <c r="B4036" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-05</t>
         </is>
       </c>
       <c r="C4036">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4036">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4037">
@@ -73017,14 +73017,14 @@
       </c>
       <c r="B4037" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-07</t>
         </is>
       </c>
       <c r="C4037">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4038">
@@ -73035,14 +73035,14 @@
       </c>
       <c r="B4038" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="C4038">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D4038">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4039">
@@ -73053,14 +73053,14 @@
       </c>
       <c r="B4039" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-02-28</t>
         </is>
       </c>
       <c r="C4039">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D4039">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4040">
@@ -73071,7 +73071,7 @@
       </c>
       <c r="B4040" t="inlineStr">
         <is>
-          <t>2023-03-05</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="C4040">
@@ -73089,7 +73089,7 @@
       </c>
       <c r="B4041" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-05</t>
         </is>
       </c>
       <c r="C4041">
@@ -73107,11 +73107,11 @@
       </c>
       <c r="B4042" t="inlineStr">
         <is>
-          <t>2023-03-15</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="C4042">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4042">
         <v>0</v>
@@ -73125,11 +73125,11 @@
       </c>
       <c r="B4043" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-03-15</t>
         </is>
       </c>
       <c r="C4043">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4043">
         <v>0</v>
@@ -73143,11 +73143,11 @@
       </c>
       <c r="B4044" t="inlineStr">
         <is>
-          <t>2023-03-25</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="C4044">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4044">
         <v>0</v>
@@ -73161,7 +73161,7 @@
       </c>
       <c r="B4045" t="inlineStr">
         <is>
-          <t>2023-03-26</t>
+          <t>2023-03-25</t>
         </is>
       </c>
       <c r="C4045">
@@ -73179,11 +73179,11 @@
       </c>
       <c r="B4046" t="inlineStr">
         <is>
-          <t>2023-03-27</t>
+          <t>2023-03-26</t>
         </is>
       </c>
       <c r="C4046">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4046">
         <v>0</v>
@@ -73197,11 +73197,11 @@
       </c>
       <c r="B4047" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-03-27</t>
         </is>
       </c>
       <c r="C4047">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4047">
         <v>0</v>
@@ -73215,11 +73215,11 @@
       </c>
       <c r="B4048" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-02</t>
         </is>
       </c>
       <c r="C4048">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4048">
         <v>0</v>
@@ -73233,11 +73233,11 @@
       </c>
       <c r="B4049" t="inlineStr">
         <is>
-          <t>2023-04-05</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="C4049">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4049">
         <v>0</v>
@@ -73251,7 +73251,7 @@
       </c>
       <c r="B4050" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="C4050">
@@ -73269,11 +73269,11 @@
       </c>
       <c r="B4051" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="C4051">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4051">
         <v>0</v>
@@ -73287,14 +73287,14 @@
       </c>
       <c r="B4052" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2023-04-09</t>
         </is>
       </c>
       <c r="C4052">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4052">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4053">
@@ -73305,11 +73305,11 @@
       </c>
       <c r="B4053" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="C4053">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4053">
         <v>1</v>
@@ -73323,14 +73323,14 @@
       </c>
       <c r="B4054" t="inlineStr">
         <is>
-          <t>2023-04-28</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="C4054">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4055">
@@ -73341,11 +73341,11 @@
       </c>
       <c r="B4055" t="inlineStr">
         <is>
-          <t>2023-04-29</t>
+          <t>2023-04-28</t>
         </is>
       </c>
       <c r="C4055">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4055">
         <v>0</v>
@@ -73359,11 +73359,11 @@
       </c>
       <c r="B4056" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-04-29</t>
         </is>
       </c>
       <c r="C4056">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4056">
         <v>0</v>
@@ -73377,11 +73377,11 @@
       </c>
       <c r="B4057" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2023-04-30</t>
         </is>
       </c>
       <c r="C4057">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4057">
         <v>0</v>
@@ -73395,11 +73395,11 @@
       </c>
       <c r="B4058" t="inlineStr">
         <is>
-          <t>2023-05-06</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="C4058">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4058">
         <v>0</v>
@@ -73413,7 +73413,7 @@
       </c>
       <c r="B4059" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="C4059">
@@ -73431,11 +73431,11 @@
       </c>
       <c r="B4060" t="inlineStr">
         <is>
-          <t>2023-05-09</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="C4060">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4060">
         <v>0</v>
@@ -73449,11 +73449,11 @@
       </c>
       <c r="B4061" t="inlineStr">
         <is>
-          <t>2023-05-10</t>
+          <t>2023-05-09</t>
         </is>
       </c>
       <c r="C4061">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4061">
         <v>0</v>
@@ -73467,11 +73467,11 @@
       </c>
       <c r="B4062" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-05-10</t>
         </is>
       </c>
       <c r="C4062">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4062">
         <v>0</v>
@@ -73485,11 +73485,11 @@
       </c>
       <c r="B4063" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="C4063">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4063">
         <v>0</v>
@@ -73503,11 +73503,11 @@
       </c>
       <c r="B4064" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="C4064">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4064">
         <v>0</v>
@@ -73521,11 +73521,11 @@
       </c>
       <c r="B4065" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-05-21</t>
         </is>
       </c>
       <c r="C4065">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4065">
         <v>0</v>
@@ -73539,11 +73539,11 @@
       </c>
       <c r="B4066" t="inlineStr">
         <is>
-          <t>2023-06-03</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="C4066">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4066">
         <v>0</v>
@@ -73557,14 +73557,14 @@
       </c>
       <c r="B4067" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-03</t>
         </is>
       </c>
       <c r="C4067">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4067">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4068">
@@ -73575,14 +73575,14 @@
       </c>
       <c r="B4068" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-04</t>
         </is>
       </c>
       <c r="C4068">
         <v>7</v>
       </c>
       <c r="D4068">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4069">
@@ -73593,11 +73593,11 @@
       </c>
       <c r="B4069" t="inlineStr">
         <is>
-          <t>2023-06-16</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="C4069">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4069">
         <v>0</v>
@@ -73611,11 +73611,11 @@
       </c>
       <c r="B4070" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-06-16</t>
         </is>
       </c>
       <c r="C4070">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4070">
         <v>0</v>
@@ -73629,7 +73629,7 @@
       </c>
       <c r="B4071" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-07-08</t>
         </is>
       </c>
       <c r="C4071">
@@ -73647,7 +73647,7 @@
       </c>
       <c r="B4072" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="C4072">
@@ -73665,7 +73665,7 @@
       </c>
       <c r="B4073" t="inlineStr">
         <is>
-          <t>2023-08-07</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="C4073">
@@ -73683,7 +73683,7 @@
       </c>
       <c r="B4074" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-08-07</t>
         </is>
       </c>
       <c r="C4074">
@@ -73696,12 +73696,12 @@
     <row r="4075">
       <c r="A4075" t="inlineStr">
         <is>
-          <t>TRES RIOS</t>
+          <t>TERESOPOLIS</t>
         </is>
       </c>
       <c r="B4075" t="inlineStr">
         <is>
-          <t>2023-05-17</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="C4075">
@@ -73714,12 +73714,12 @@
     <row r="4076">
       <c r="A4076" t="inlineStr">
         <is>
-          <t>VALENCA</t>
+          <t>TRES RIOS</t>
         </is>
       </c>
       <c r="B4076" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2023-05-17</t>
         </is>
       </c>
       <c r="C4076">
@@ -73737,14 +73737,14 @@
       </c>
       <c r="B4077" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="C4077">
         <v>1</v>
       </c>
       <c r="D4077">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4078">
@@ -73755,7 +73755,7 @@
       </c>
       <c r="B4078" t="inlineStr">
         <is>
-          <t>2023-01-08</t>
+          <t>2023-01-04</t>
         </is>
       </c>
       <c r="C4078">
@@ -73773,14 +73773,14 @@
       </c>
       <c r="B4079" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-08</t>
         </is>
       </c>
       <c r="C4079">
         <v>1</v>
       </c>
       <c r="D4079">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4080">
@@ -73791,14 +73791,14 @@
       </c>
       <c r="B4080" t="inlineStr">
         <is>
-          <t>2023-02-22</t>
+          <t>2023-01-09</t>
         </is>
       </c>
       <c r="C4080">
         <v>1</v>
       </c>
       <c r="D4080">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4081">
@@ -73809,7 +73809,7 @@
       </c>
       <c r="B4081" t="inlineStr">
         <is>
-          <t>2023-03-03</t>
+          <t>2023-02-22</t>
         </is>
       </c>
       <c r="C4081">
@@ -73827,7 +73827,7 @@
       </c>
       <c r="B4082" t="inlineStr">
         <is>
-          <t>2023-03-12</t>
+          <t>2023-03-03</t>
         </is>
       </c>
       <c r="C4082">
@@ -73845,14 +73845,14 @@
       </c>
       <c r="B4083" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-12</t>
         </is>
       </c>
       <c r="C4083">
         <v>1</v>
       </c>
       <c r="D4083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4084">
@@ -73863,7 +73863,7 @@
       </c>
       <c r="B4084" t="inlineStr">
         <is>
-          <t>2023-03-17</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="C4084">
@@ -73881,14 +73881,14 @@
       </c>
       <c r="B4085" t="inlineStr">
         <is>
-          <t>2023-03-19</t>
+          <t>2023-03-17</t>
         </is>
       </c>
       <c r="C4085">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4085">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4086">
@@ -73899,14 +73899,14 @@
       </c>
       <c r="B4086" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-03-19</t>
         </is>
       </c>
       <c r="C4086">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4086">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4087">
@@ -73917,14 +73917,14 @@
       </c>
       <c r="B4087" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="C4087">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4087">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4088">
@@ -73935,11 +73935,11 @@
       </c>
       <c r="B4088" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="C4088">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4088">
         <v>1</v>
@@ -73953,14 +73953,14 @@
       </c>
       <c r="B4089" t="inlineStr">
         <is>
-          <t>2023-03-26</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="C4089">
         <v>1</v>
       </c>
       <c r="D4089">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4090">
@@ -73971,14 +73971,14 @@
       </c>
       <c r="B4090" t="inlineStr">
         <is>
-          <t>2023-03-29</t>
+          <t>2023-03-26</t>
         </is>
       </c>
       <c r="C4090">
         <v>1</v>
       </c>
       <c r="D4090">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4091">
@@ -73989,14 +73989,14 @@
       </c>
       <c r="B4091" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-03-29</t>
         </is>
       </c>
       <c r="C4091">
         <v>1</v>
       </c>
       <c r="D4091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4092">
@@ -74007,14 +74007,14 @@
       </c>
       <c r="B4092" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="C4092">
         <v>1</v>
       </c>
       <c r="D4092">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4093">
@@ -74025,14 +74025,14 @@
       </c>
       <c r="B4093" t="inlineStr">
         <is>
-          <t>2023-04-10</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="C4093">
         <v>1</v>
       </c>
       <c r="D4093">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4094">
@@ -74043,7 +74043,7 @@
       </c>
       <c r="B4094" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2023-04-10</t>
         </is>
       </c>
       <c r="C4094">
@@ -74061,14 +74061,14 @@
       </c>
       <c r="B4095" t="inlineStr">
         <is>
-          <t>2023-04-17</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="C4095">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4095">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4096">
@@ -74079,14 +74079,14 @@
       </c>
       <c r="B4096" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2023-04-17</t>
         </is>
       </c>
       <c r="C4096">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4097">
@@ -74097,7 +74097,7 @@
       </c>
       <c r="B4097" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="C4097">
@@ -74115,11 +74115,11 @@
       </c>
       <c r="B4098" t="inlineStr">
         <is>
-          <t>2023-05-03</t>
+          <t>2023-04-30</t>
         </is>
       </c>
       <c r="C4098">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4098">
         <v>0</v>
@@ -74133,11 +74133,11 @@
       </c>
       <c r="B4099" t="inlineStr">
         <is>
-          <t>2023-05-05</t>
+          <t>2023-05-03</t>
         </is>
       </c>
       <c r="C4099">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4099">
         <v>0</v>
@@ -74151,7 +74151,7 @@
       </c>
       <c r="B4100" t="inlineStr">
         <is>
-          <t>2023-05-07</t>
+          <t>2023-05-05</t>
         </is>
       </c>
       <c r="C4100">
@@ -74169,7 +74169,7 @@
       </c>
       <c r="B4101" t="inlineStr">
         <is>
-          <t>2023-05-09</t>
+          <t>2023-05-07</t>
         </is>
       </c>
       <c r="C4101">
@@ -74187,11 +74187,11 @@
       </c>
       <c r="B4102" t="inlineStr">
         <is>
-          <t>2023-05-10</t>
+          <t>2023-05-09</t>
         </is>
       </c>
       <c r="C4102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4102">
         <v>0</v>
@@ -74205,11 +74205,11 @@
       </c>
       <c r="B4103" t="inlineStr">
         <is>
-          <t>2023-05-11</t>
+          <t>2023-05-10</t>
         </is>
       </c>
       <c r="C4103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4103">
         <v>0</v>
@@ -74223,11 +74223,11 @@
       </c>
       <c r="B4104" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-05-11</t>
         </is>
       </c>
       <c r="C4104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4104">
         <v>0</v>
@@ -74241,14 +74241,14 @@
       </c>
       <c r="B4105" t="inlineStr">
         <is>
-          <t>2023-05-13</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="C4105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4106">
@@ -74259,14 +74259,14 @@
       </c>
       <c r="B4106" t="inlineStr">
         <is>
-          <t>2023-05-17</t>
+          <t>2023-05-13</t>
         </is>
       </c>
       <c r="C4106">
         <v>1</v>
       </c>
       <c r="D4106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4107">
@@ -74277,7 +74277,7 @@
       </c>
       <c r="B4107" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2023-05-17</t>
         </is>
       </c>
       <c r="C4107">
@@ -74295,7 +74295,7 @@
       </c>
       <c r="B4108" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="C4108">
@@ -74313,7 +74313,7 @@
       </c>
       <c r="B4109" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2023-05-21</t>
         </is>
       </c>
       <c r="C4109">
@@ -74331,7 +74331,7 @@
       </c>
       <c r="B4110" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="C4110">
@@ -74349,7 +74349,7 @@
       </c>
       <c r="B4111" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="C4111">
@@ -74367,11 +74367,11 @@
       </c>
       <c r="B4112" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="C4112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4112">
         <v>0</v>
@@ -74385,7 +74385,7 @@
       </c>
       <c r="B4113" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="C4113">
@@ -74403,11 +74403,11 @@
       </c>
       <c r="B4114" t="inlineStr">
         <is>
-          <t>2023-06-06</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="C4114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4114">
         <v>0</v>
@@ -74421,7 +74421,7 @@
       </c>
       <c r="B4115" t="inlineStr">
         <is>
-          <t>2023-06-07</t>
+          <t>2023-06-06</t>
         </is>
       </c>
       <c r="C4115">
@@ -74439,7 +74439,7 @@
       </c>
       <c r="B4116" t="inlineStr">
         <is>
-          <t>2023-06-11</t>
+          <t>2023-06-07</t>
         </is>
       </c>
       <c r="C4116">
@@ -74457,7 +74457,7 @@
       </c>
       <c r="B4117" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-06-11</t>
         </is>
       </c>
       <c r="C4117">
@@ -74475,7 +74475,7 @@
       </c>
       <c r="B4118" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="C4118">
@@ -74493,7 +74493,7 @@
       </c>
       <c r="B4119" t="inlineStr">
         <is>
-          <t>2023-06-25</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="C4119">
@@ -74511,7 +74511,7 @@
       </c>
       <c r="B4120" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-25</t>
         </is>
       </c>
       <c r="C4120">
@@ -74529,7 +74529,7 @@
       </c>
       <c r="B4121" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="C4121">
@@ -74547,11 +74547,11 @@
       </c>
       <c r="B4122" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="C4122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4122">
         <v>0</v>
@@ -74565,11 +74565,11 @@
       </c>
       <c r="B4123" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="C4123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4123">
         <v>0</v>
@@ -74583,7 +74583,7 @@
       </c>
       <c r="B4124" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="C4124">
@@ -74601,7 +74601,7 @@
       </c>
       <c r="B4125" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="C4125">
@@ -74619,7 +74619,7 @@
       </c>
       <c r="B4126" t="inlineStr">
         <is>
-          <t>2023-08-20</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="C4126">
@@ -74637,7 +74637,7 @@
       </c>
       <c r="B4127" t="inlineStr">
         <is>
-          <t>2023-09-02</t>
+          <t>2023-08-20</t>
         </is>
       </c>
       <c r="C4127">
@@ -74655,7 +74655,7 @@
       </c>
       <c r="B4128" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-02</t>
         </is>
       </c>
       <c r="C4128">
@@ -74673,7 +74673,7 @@
       </c>
       <c r="B4129" t="inlineStr">
         <is>
-          <t>2023-09-19</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="C4129">
@@ -74691,32 +74691,32 @@
       </c>
       <c r="B4130" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-19</t>
         </is>
       </c>
       <c r="C4130">
         <v>1</v>
       </c>
       <c r="D4130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4131">
       <c r="A4131" t="inlineStr">
         <is>
-          <t>VASSOURAS</t>
+          <t>VALENCA</t>
         </is>
       </c>
       <c r="B4131" t="inlineStr">
         <is>
-          <t>2022-12-26</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="C4131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4131">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4132">
@@ -74727,14 +74727,14 @@
       </c>
       <c r="B4132" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2022-12-26</t>
         </is>
       </c>
       <c r="C4132">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4132">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4133">
@@ -74745,14 +74745,14 @@
       </c>
       <c r="B4133" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2022-12-29</t>
         </is>
       </c>
       <c r="C4133">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4133">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4134">
@@ -74763,14 +74763,14 @@
       </c>
       <c r="B4134" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2023-01-04</t>
         </is>
       </c>
       <c r="C4134">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4135">
@@ -74781,11 +74781,11 @@
       </c>
       <c r="B4135" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="C4135">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4135">
         <v>0</v>
@@ -74799,11 +74799,11 @@
       </c>
       <c r="B4136" t="inlineStr">
         <is>
-          <t>2023-05-17</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="C4136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4136">
         <v>0</v>
@@ -74817,11 +74817,11 @@
       </c>
       <c r="B4137" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-05-17</t>
         </is>
       </c>
       <c r="C4137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4137">
         <v>0</v>
@@ -74835,11 +74835,11 @@
       </c>
       <c r="B4138" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="C4138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4138">
         <v>0</v>
@@ -74853,14 +74853,14 @@
       </c>
       <c r="B4139" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="C4139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4140">
@@ -74871,14 +74871,14 @@
       </c>
       <c r="B4140" t="inlineStr">
         <is>
-          <t>2023-05-25</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="C4140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4141">
@@ -74889,14 +74889,14 @@
       </c>
       <c r="B4141" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="C4141">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4141">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4142">
@@ -74907,14 +74907,14 @@
       </c>
       <c r="B4142" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="C4142">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4142">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4143">
@@ -74925,14 +74925,14 @@
       </c>
       <c r="B4143" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="C4143">
         <v>6</v>
       </c>
       <c r="D4143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4144">
@@ -74943,14 +74943,14 @@
       </c>
       <c r="B4144" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="C4144">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4145">
@@ -74961,7 +74961,7 @@
       </c>
       <c r="B4145" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="C4145">
@@ -74979,7 +74979,7 @@
       </c>
       <c r="B4146" t="inlineStr">
         <is>
-          <t>2023-06-12</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="C4146">
@@ -74997,11 +74997,11 @@
       </c>
       <c r="B4147" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-12</t>
         </is>
       </c>
       <c r="C4147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4147">
         <v>0</v>
@@ -75015,11 +75015,11 @@
       </c>
       <c r="B4148" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="C4148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4148">
         <v>0</v>
@@ -75033,11 +75033,11 @@
       </c>
       <c r="B4149" t="inlineStr">
         <is>
-          <t>2023-09-20</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="C4149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4149">
         <v>0</v>
@@ -75046,19 +75046,19 @@
     <row r="4150">
       <c r="A4150" t="inlineStr">
         <is>
-          <t>VOLTA REDONDA</t>
+          <t>VASSOURAS</t>
         </is>
       </c>
       <c r="B4150" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2023-09-20</t>
         </is>
       </c>
       <c r="C4150">
         <v>1</v>
       </c>
       <c r="D4150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4151">
@@ -75069,14 +75069,14 @@
       </c>
       <c r="B4151" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="C4151">
         <v>1</v>
       </c>
       <c r="D4151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4152">
@@ -75087,7 +75087,7 @@
       </c>
       <c r="B4152" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="C4152">
@@ -75105,7 +75105,7 @@
       </c>
       <c r="B4153" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2023-01-03</t>
         </is>
       </c>
       <c r="C4153">
@@ -75123,14 +75123,14 @@
       </c>
       <c r="B4154" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-01-04</t>
         </is>
       </c>
       <c r="C4154">
         <v>1</v>
       </c>
       <c r="D4154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4155">
@@ -75141,14 +75141,14 @@
       </c>
       <c r="B4155" t="inlineStr">
         <is>
-          <t>2023-01-06</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="C4155">
         <v>1</v>
       </c>
       <c r="D4155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4156">
@@ -75159,11 +75159,11 @@
       </c>
       <c r="B4156" t="inlineStr">
         <is>
-          <t>2023-01-08</t>
+          <t>2023-01-06</t>
         </is>
       </c>
       <c r="C4156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4156">
         <v>0</v>
@@ -75177,11 +75177,11 @@
       </c>
       <c r="B4157" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-08</t>
         </is>
       </c>
       <c r="C4157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4157">
         <v>0</v>
@@ -75195,7 +75195,7 @@
       </c>
       <c r="B4158" t="inlineStr">
         <is>
-          <t>2023-01-12</t>
+          <t>2023-01-09</t>
         </is>
       </c>
       <c r="C4158">
@@ -75213,14 +75213,14 @@
       </c>
       <c r="B4159" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-12</t>
         </is>
       </c>
       <c r="C4159">
         <v>1</v>
       </c>
       <c r="D4159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4160">
@@ -75231,14 +75231,14 @@
       </c>
       <c r="B4160" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-15</t>
         </is>
       </c>
       <c r="C4160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4161">
@@ -75249,7 +75249,7 @@
       </c>
       <c r="B4161" t="inlineStr">
         <is>
-          <t>2023-01-23</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="C4161">
@@ -75267,7 +75267,7 @@
       </c>
       <c r="B4162" t="inlineStr">
         <is>
-          <t>2023-01-25</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="C4162">
@@ -75285,7 +75285,7 @@
       </c>
       <c r="B4163" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-01-25</t>
         </is>
       </c>
       <c r="C4163">
@@ -75303,11 +75303,11 @@
       </c>
       <c r="B4164" t="inlineStr">
         <is>
-          <t>2023-01-30</t>
+          <t>2023-01-27</t>
         </is>
       </c>
       <c r="C4164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4164">
         <v>0</v>
@@ -75321,7 +75321,7 @@
       </c>
       <c r="B4165" t="inlineStr">
         <is>
-          <t>2023-01-31</t>
+          <t>2023-01-30</t>
         </is>
       </c>
       <c r="C4165">
@@ -75339,7 +75339,7 @@
       </c>
       <c r="B4166" t="inlineStr">
         <is>
-          <t>2023-02-03</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="C4166">
@@ -75357,11 +75357,11 @@
       </c>
       <c r="B4167" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-03</t>
         </is>
       </c>
       <c r="C4167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4167">
         <v>0</v>
@@ -75375,11 +75375,11 @@
       </c>
       <c r="B4168" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-06</t>
         </is>
       </c>
       <c r="C4168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4168">
         <v>0</v>
@@ -75393,7 +75393,7 @@
       </c>
       <c r="B4169" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2023-02-07</t>
         </is>
       </c>
       <c r="C4169">
@@ -75411,11 +75411,11 @@
       </c>
       <c r="B4170" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="C4170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4170">
         <v>0</v>
@@ -75429,11 +75429,11 @@
       </c>
       <c r="B4171" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="C4171">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4171">
         <v>0</v>
@@ -75447,11 +75447,11 @@
       </c>
       <c r="B4172" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="C4172">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4172">
         <v>0</v>
@@ -75465,11 +75465,11 @@
       </c>
       <c r="B4173" t="inlineStr">
         <is>
-          <t>2023-02-20</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="C4173">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4173">
         <v>0</v>
@@ -75483,14 +75483,14 @@
       </c>
       <c r="B4174" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="C4174">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4175">
@@ -75501,14 +75501,14 @@
       </c>
       <c r="B4175" t="inlineStr">
         <is>
-          <t>2023-02-22</t>
+          <t>2023-02-21</t>
         </is>
       </c>
       <c r="C4175">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4176">
@@ -75519,7 +75519,7 @@
       </c>
       <c r="B4176" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-02-22</t>
         </is>
       </c>
       <c r="C4176">
@@ -75537,7 +75537,7 @@
       </c>
       <c r="B4177" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="C4177">
@@ -75555,11 +75555,11 @@
       </c>
       <c r="B4178" t="inlineStr">
         <is>
-          <t>2023-02-26</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="C4178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4178">
         <v>0</v>
@@ -75573,11 +75573,11 @@
       </c>
       <c r="B4179" t="inlineStr">
         <is>
-          <t>2023-02-27</t>
+          <t>2023-02-26</t>
         </is>
       </c>
       <c r="C4179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4179">
         <v>0</v>
@@ -75591,11 +75591,11 @@
       </c>
       <c r="B4180" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-02-27</t>
         </is>
       </c>
       <c r="C4180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4180">
         <v>0</v>
@@ -75609,11 +75609,11 @@
       </c>
       <c r="B4181" t="inlineStr">
         <is>
-          <t>2023-03-03</t>
+          <t>2023-02-28</t>
         </is>
       </c>
       <c r="C4181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4181">
         <v>0</v>
@@ -75627,11 +75627,11 @@
       </c>
       <c r="B4182" t="inlineStr">
         <is>
-          <t>2023-03-05</t>
+          <t>2023-03-03</t>
         </is>
       </c>
       <c r="C4182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4182">
         <v>0</v>
@@ -75645,11 +75645,11 @@
       </c>
       <c r="B4183" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
+          <t>2023-03-05</t>
         </is>
       </c>
       <c r="C4183">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4183">
         <v>0</v>
@@ -75663,11 +75663,11 @@
       </c>
       <c r="B4184" t="inlineStr">
         <is>
-          <t>2023-03-09</t>
+          <t>2023-03-06</t>
         </is>
       </c>
       <c r="C4184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4184">
         <v>0</v>
@@ -75681,11 +75681,11 @@
       </c>
       <c r="B4185" t="inlineStr">
         <is>
-          <t>2023-03-12</t>
+          <t>2023-03-09</t>
         </is>
       </c>
       <c r="C4185">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4185">
         <v>0</v>
@@ -75699,11 +75699,11 @@
       </c>
       <c r="B4186" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-12</t>
         </is>
       </c>
       <c r="C4186">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4186">
         <v>0</v>
@@ -75717,11 +75717,11 @@
       </c>
       <c r="B4187" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="C4187">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4187">
         <v>0</v>
@@ -75735,14 +75735,14 @@
       </c>
       <c r="B4188" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="C4188">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4189">
@@ -75753,14 +75753,14 @@
       </c>
       <c r="B4189" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="C4189">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4190">
@@ -75771,14 +75771,14 @@
       </c>
       <c r="B4190" t="inlineStr">
         <is>
-          <t>2023-03-27</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="C4190">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4191">
@@ -75789,14 +75789,14 @@
       </c>
       <c r="B4191" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-03-27</t>
         </is>
       </c>
       <c r="C4191">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4192">
@@ -75807,11 +75807,11 @@
       </c>
       <c r="B4192" t="inlineStr">
         <is>
-          <t>2023-03-29</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="C4192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4192">
         <v>0</v>
@@ -75825,7 +75825,7 @@
       </c>
       <c r="B4193" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-03-29</t>
         </is>
       </c>
       <c r="C4193">
@@ -75843,11 +75843,11 @@
       </c>
       <c r="B4194" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="C4194">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4194">
         <v>0</v>
@@ -75861,11 +75861,11 @@
       </c>
       <c r="B4195" t="inlineStr">
         <is>
-          <t>2023-04-05</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="C4195">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4195">
         <v>0</v>
@@ -75879,11 +75879,11 @@
       </c>
       <c r="B4196" t="inlineStr">
         <is>
-          <t>2023-04-10</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="C4196">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D4196">
         <v>0</v>
@@ -75897,14 +75897,14 @@
       </c>
       <c r="B4197" t="inlineStr">
         <is>
-          <t>2023-04-11</t>
+          <t>2023-04-10</t>
         </is>
       </c>
       <c r="C4197">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4198">
@@ -75915,14 +75915,14 @@
       </c>
       <c r="B4198" t="inlineStr">
         <is>
-          <t>2023-04-12</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="C4198">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4199">
@@ -75933,7 +75933,7 @@
       </c>
       <c r="B4199" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2023-04-12</t>
         </is>
       </c>
       <c r="C4199">
@@ -75951,11 +75951,11 @@
       </c>
       <c r="B4200" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="C4200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4200">
         <v>0</v>
@@ -75969,11 +75969,11 @@
       </c>
       <c r="B4201" t="inlineStr">
         <is>
-          <t>2023-04-17</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="C4201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4201">
         <v>0</v>
@@ -75987,11 +75987,11 @@
       </c>
       <c r="B4202" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-04-17</t>
         </is>
       </c>
       <c r="C4202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4202">
         <v>0</v>
@@ -76005,11 +76005,11 @@
       </c>
       <c r="B4203" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="C4203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4203">
         <v>0</v>
@@ -76023,7 +76023,7 @@
       </c>
       <c r="B4204" t="inlineStr">
         <is>
-          <t>2023-04-20</t>
+          <t>2023-04-19</t>
         </is>
       </c>
       <c r="C4204">
@@ -76041,14 +76041,14 @@
       </c>
       <c r="B4205" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2023-04-20</t>
         </is>
       </c>
       <c r="C4205">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4206">
@@ -76059,14 +76059,14 @@
       </c>
       <c r="B4206" t="inlineStr">
         <is>
-          <t>2023-04-24</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="C4206">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4207">
@@ -76077,11 +76077,11 @@
       </c>
       <c r="B4207" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-04-24</t>
         </is>
       </c>
       <c r="C4207">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4207">
         <v>0</v>
@@ -76095,14 +76095,14 @@
       </c>
       <c r="B4208" t="inlineStr">
         <is>
-          <t>2023-04-28</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="C4208">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4209">
@@ -76113,14 +76113,14 @@
       </c>
       <c r="B4209" t="inlineStr">
         <is>
-          <t>2023-04-29</t>
+          <t>2023-04-28</t>
         </is>
       </c>
       <c r="C4209">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4210">
@@ -76131,7 +76131,7 @@
       </c>
       <c r="B4210" t="inlineStr">
         <is>
-          <t>2023-05-03</t>
+          <t>2023-04-29</t>
         </is>
       </c>
       <c r="C4210">
@@ -76149,11 +76149,11 @@
       </c>
       <c r="B4211" t="inlineStr">
         <is>
-          <t>2023-05-04</t>
+          <t>2023-05-03</t>
         </is>
       </c>
       <c r="C4211">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4211">
         <v>0</v>
@@ -76167,11 +76167,11 @@
       </c>
       <c r="B4212" t="inlineStr">
         <is>
-          <t>2023-05-05</t>
+          <t>2023-05-04</t>
         </is>
       </c>
       <c r="C4212">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4212">
         <v>0</v>
@@ -76185,11 +76185,11 @@
       </c>
       <c r="B4213" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-05-05</t>
         </is>
       </c>
       <c r="C4213">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4213">
         <v>0</v>
@@ -76203,11 +76203,11 @@
       </c>
       <c r="B4214" t="inlineStr">
         <is>
-          <t>2023-05-10</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="C4214">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4214">
         <v>0</v>
@@ -76221,11 +76221,11 @@
       </c>
       <c r="B4215" t="inlineStr">
         <is>
-          <t>2023-05-11</t>
+          <t>2023-05-10</t>
         </is>
       </c>
       <c r="C4215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4215">
         <v>0</v>
@@ -76239,7 +76239,7 @@
       </c>
       <c r="B4216" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2023-05-11</t>
         </is>
       </c>
       <c r="C4216">
@@ -76257,11 +76257,11 @@
       </c>
       <c r="B4217" t="inlineStr">
         <is>
-          <t>2023-05-17</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="C4217">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4217">
         <v>0</v>
@@ -76275,11 +76275,11 @@
       </c>
       <c r="B4218" t="inlineStr">
         <is>
-          <t>2023-05-22</t>
+          <t>2023-05-17</t>
         </is>
       </c>
       <c r="C4218">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4218">
         <v>0</v>
@@ -76293,11 +76293,11 @@
       </c>
       <c r="B4219" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-05-22</t>
         </is>
       </c>
       <c r="C4219">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4219">
         <v>0</v>
@@ -76311,14 +76311,14 @@
       </c>
       <c r="B4220" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="C4220">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4221">
@@ -76329,11 +76329,11 @@
       </c>
       <c r="B4221" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="C4221">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4221">
         <v>1</v>
@@ -76347,14 +76347,14 @@
       </c>
       <c r="B4222" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="C4222">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4223">
@@ -76365,11 +76365,11 @@
       </c>
       <c r="B4223" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="C4223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4223">
         <v>0</v>
@@ -76383,11 +76383,11 @@
       </c>
       <c r="B4224" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-04</t>
         </is>
       </c>
       <c r="C4224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4224">
         <v>0</v>
@@ -76401,7 +76401,7 @@
       </c>
       <c r="B4225" t="inlineStr">
         <is>
-          <t>2023-06-06</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="C4225">
@@ -76419,11 +76419,11 @@
       </c>
       <c r="B4226" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2023-06-06</t>
         </is>
       </c>
       <c r="C4226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4226">
         <v>0</v>
@@ -76437,11 +76437,11 @@
       </c>
       <c r="B4227" t="inlineStr">
         <is>
-          <t>2023-06-09</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="C4227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4227">
         <v>0</v>
@@ -76455,11 +76455,11 @@
       </c>
       <c r="B4228" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-06-09</t>
         </is>
       </c>
       <c r="C4228">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4228">
         <v>0</v>
@@ -76473,11 +76473,11 @@
       </c>
       <c r="B4229" t="inlineStr">
         <is>
-          <t>2023-06-12</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="C4229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4229">
         <v>0</v>
@@ -76491,11 +76491,11 @@
       </c>
       <c r="B4230" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-12</t>
         </is>
       </c>
       <c r="C4230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4230">
         <v>0</v>
@@ -76509,11 +76509,11 @@
       </c>
       <c r="B4231" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="C4231">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4231">
         <v>0</v>
@@ -76527,11 +76527,11 @@
       </c>
       <c r="B4232" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="C4232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4232">
         <v>0</v>
@@ -76545,11 +76545,11 @@
       </c>
       <c r="B4233" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
+          <t>2023-06-18</t>
         </is>
       </c>
       <c r="C4233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4233">
         <v>0</v>
@@ -76563,11 +76563,11 @@
       </c>
       <c r="B4234" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="C4234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4234">
         <v>0</v>
@@ -76581,11 +76581,11 @@
       </c>
       <c r="B4235" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="C4235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4235">
         <v>0</v>
@@ -76599,11 +76599,11 @@
       </c>
       <c r="B4236" t="inlineStr">
         <is>
-          <t>2023-06-24</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="C4236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4236">
         <v>0</v>
@@ -76617,11 +76617,11 @@
       </c>
       <c r="B4237" t="inlineStr">
         <is>
-          <t>2023-06-25</t>
+          <t>2023-06-24</t>
         </is>
       </c>
       <c r="C4237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4237">
         <v>0</v>
@@ -76635,11 +76635,11 @@
       </c>
       <c r="B4238" t="inlineStr">
         <is>
-          <t>2023-06-29</t>
+          <t>2023-06-25</t>
         </is>
       </c>
       <c r="C4238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4238">
         <v>0</v>
@@ -76653,7 +76653,7 @@
       </c>
       <c r="B4239" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-06-29</t>
         </is>
       </c>
       <c r="C4239">
@@ -76671,11 +76671,11 @@
       </c>
       <c r="B4240" t="inlineStr">
         <is>
-          <t>2023-07-02</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="C4240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4240">
         <v>0</v>
@@ -76689,11 +76689,11 @@
       </c>
       <c r="B4241" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-07-02</t>
         </is>
       </c>
       <c r="C4241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4241">
         <v>0</v>
@@ -76707,11 +76707,11 @@
       </c>
       <c r="B4242" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="C4242">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4242">
         <v>0</v>
@@ -76725,11 +76725,11 @@
       </c>
       <c r="B4243" t="inlineStr">
         <is>
-          <t>2023-07-05</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="C4243">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4243">
         <v>0</v>
@@ -76743,11 +76743,11 @@
       </c>
       <c r="B4244" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
+          <t>2023-07-05</t>
         </is>
       </c>
       <c r="C4244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4244">
         <v>0</v>
@@ -76761,11 +76761,11 @@
       </c>
       <c r="B4245" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="C4245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4245">
         <v>0</v>
@@ -76779,11 +76779,11 @@
       </c>
       <c r="B4246" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2023-07-08</t>
         </is>
       </c>
       <c r="C4246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4246">
         <v>0</v>
@@ -76797,11 +76797,11 @@
       </c>
       <c r="B4247" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="C4247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4247">
         <v>0</v>
@@ -76815,7 +76815,7 @@
       </c>
       <c r="B4248" t="inlineStr">
         <is>
-          <t>2023-07-11</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="C4248">
@@ -76833,7 +76833,7 @@
       </c>
       <c r="B4249" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-07-11</t>
         </is>
       </c>
       <c r="C4249">
@@ -76851,7 +76851,7 @@
       </c>
       <c r="B4250" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="C4250">
@@ -76869,11 +76869,11 @@
       </c>
       <c r="B4251" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-07-13</t>
         </is>
       </c>
       <c r="C4251">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4251">
         <v>0</v>
@@ -76887,11 +76887,11 @@
       </c>
       <c r="B4252" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="C4252">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4252">
         <v>0</v>
@@ -76905,11 +76905,11 @@
       </c>
       <c r="B4253" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="C4253">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4253">
         <v>0</v>
@@ -76923,11 +76923,11 @@
       </c>
       <c r="B4254" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="C4254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4254">
         <v>0</v>
@@ -76941,11 +76941,11 @@
       </c>
       <c r="B4255" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="C4255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4255">
         <v>0</v>
@@ -76959,11 +76959,11 @@
       </c>
       <c r="B4256" t="inlineStr">
         <is>
-          <t>2023-07-22</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="C4256">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4256">
         <v>0</v>
@@ -76977,11 +76977,11 @@
       </c>
       <c r="B4257" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-07-22</t>
         </is>
       </c>
       <c r="C4257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4257">
         <v>0</v>
@@ -76995,11 +76995,11 @@
       </c>
       <c r="B4258" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="C4258">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4258">
         <v>0</v>
@@ -77013,11 +77013,11 @@
       </c>
       <c r="B4259" t="inlineStr">
         <is>
-          <t>2023-07-26</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="C4259">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4259">
         <v>0</v>
@@ -77031,11 +77031,11 @@
       </c>
       <c r="B4260" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-07-26</t>
         </is>
       </c>
       <c r="C4260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4260">
         <v>0</v>
@@ -77049,11 +77049,11 @@
       </c>
       <c r="B4261" t="inlineStr">
         <is>
-          <t>2023-07-31</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="C4261">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4261">
         <v>0</v>
@@ -77067,11 +77067,11 @@
       </c>
       <c r="B4262" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="C4262">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4262">
         <v>0</v>
@@ -77085,11 +77085,11 @@
       </c>
       <c r="B4263" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="C4263">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4263">
         <v>0</v>
@@ -77103,7 +77103,7 @@
       </c>
       <c r="B4264" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="C4264">
@@ -77121,11 +77121,11 @@
       </c>
       <c r="B4265" t="inlineStr">
         <is>
-          <t>2023-08-07</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="C4265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4265">
         <v>0</v>
@@ -77139,11 +77139,11 @@
       </c>
       <c r="B4266" t="inlineStr">
         <is>
-          <t>2023-08-10</t>
+          <t>2023-08-07</t>
         </is>
       </c>
       <c r="C4266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4266">
         <v>0</v>
@@ -77157,7 +77157,7 @@
       </c>
       <c r="B4267" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-08-10</t>
         </is>
       </c>
       <c r="C4267">
@@ -77175,11 +77175,11 @@
       </c>
       <c r="B4268" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="C4268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4268">
         <v>0</v>
@@ -77193,11 +77193,11 @@
       </c>
       <c r="B4269" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="C4269">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4269">
         <v>0</v>
@@ -77211,11 +77211,11 @@
       </c>
       <c r="B4270" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="C4270">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4270">
         <v>0</v>
@@ -77229,7 +77229,7 @@
       </c>
       <c r="B4271" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="C4271">
@@ -77247,11 +77247,11 @@
       </c>
       <c r="B4272" t="inlineStr">
         <is>
-          <t>2023-08-20</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="C4272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4272">
         <v>0</v>
@@ -77265,11 +77265,11 @@
       </c>
       <c r="B4273" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-20</t>
         </is>
       </c>
       <c r="C4273">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4273">
         <v>0</v>
@@ -77283,11 +77283,11 @@
       </c>
       <c r="B4274" t="inlineStr">
         <is>
-          <t>2023-08-24</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="C4274">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4274">
         <v>0</v>
@@ -77301,11 +77301,11 @@
       </c>
       <c r="B4275" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-08-24</t>
         </is>
       </c>
       <c r="C4275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4275">
         <v>0</v>
@@ -77319,11 +77319,11 @@
       </c>
       <c r="B4276" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="C4276">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4276">
         <v>0</v>
@@ -77337,11 +77337,11 @@
       </c>
       <c r="B4277" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="C4277">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4277">
         <v>0</v>
@@ -77355,11 +77355,11 @@
       </c>
       <c r="B4278" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="C4278">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4278">
         <v>0</v>
@@ -77373,11 +77373,11 @@
       </c>
       <c r="B4279" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="C4279">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4279">
         <v>0</v>
@@ -77391,11 +77391,11 @@
       </c>
       <c r="B4280" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="C4280">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4280">
         <v>0</v>
@@ -77409,11 +77409,11 @@
       </c>
       <c r="B4281" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-09-10</t>
         </is>
       </c>
       <c r="C4281">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4281">
         <v>0</v>
@@ -77427,14 +77427,14 @@
       </c>
       <c r="B4282" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="C4282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4283">
@@ -77445,14 +77445,14 @@
       </c>
       <c r="B4283" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="C4283">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4284">
@@ -77463,11 +77463,11 @@
       </c>
       <c r="B4284" t="inlineStr">
         <is>
-          <t>2023-09-19</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="C4284">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4284">
         <v>0</v>
@@ -77481,14 +77481,14 @@
       </c>
       <c r="B4285" t="inlineStr">
         <is>
-          <t>2023-09-20</t>
+          <t>2023-09-19</t>
         </is>
       </c>
       <c r="C4285">
         <v>1</v>
       </c>
       <c r="D4285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4286">
@@ -77499,14 +77499,14 @@
       </c>
       <c r="B4286" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-20</t>
         </is>
       </c>
       <c r="C4286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4287">
@@ -77517,7 +77517,7 @@
       </c>
       <c r="B4287" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="C4287">
@@ -77535,11 +77535,11 @@
       </c>
       <c r="B4288" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="C4288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4288">
         <v>0</v>
@@ -77553,11 +77553,11 @@
       </c>
       <c r="B4289" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="C4289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4289">
         <v>0</v>
@@ -77571,13 +77571,31 @@
       </c>
       <c r="B4290" t="inlineStr">
         <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="C4290">
+        <v>2</v>
+      </c>
+      <c r="D4290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4291">
+      <c r="A4291" t="inlineStr">
+        <is>
+          <t>VOLTA REDONDA</t>
+        </is>
+      </c>
+      <c r="B4291" t="inlineStr">
+        <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="C4290">
-        <v>2</v>
-      </c>
-      <c r="D4290">
+      <c r="C4291">
+        <v>2</v>
+      </c>
+      <c r="D4291">
         <v>0</v>
       </c>
     </row>

--- a/inst/planilha_gal.xlsx
+++ b/inst/planilha_gal.xlsx
@@ -58819,7 +58819,7 @@
         </is>
       </c>
       <c r="C3248">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3248">
         <v>11</v>

--- a/inst/planilha_gal.xlsx
+++ b/inst/planilha_gal.xlsx
@@ -24187,7 +24187,7 @@
         </is>
       </c>
       <c r="C1324">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1324">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         </is>
       </c>
       <c r="C1339">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1339">
         <v>0</v>
@@ -59935,7 +59935,7 @@
         </is>
       </c>
       <c r="C3310">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D3310">
         <v>17</v>
@@ -61483,7 +61483,7 @@
         </is>
       </c>
       <c r="C3396">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3396">
         <v>6</v>
